--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>ID_PERSONA</t>
   </si>
@@ -111,6 +111,66 @@
   </si>
   <si>
     <t>12345678987</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4012462015</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>nkjn</t>
+  </si>
+  <si>
+    <t>kjn</t>
+  </si>
+  <si>
+    <t>kjnk</t>
+  </si>
+  <si>
+    <t>nkjn kjn kjnk</t>
+  </si>
+  <si>
+    <t>Jun 13 2015 12:00AM</t>
+  </si>
+  <si>
+    <t>Jun 24 2015  6:38PM</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3932562015</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>jhhjb</t>
+  </si>
+  <si>
+    <t>jhbj</t>
+  </si>
+  <si>
+    <t>hbjhbjh</t>
+  </si>
+  <si>
+    <t>jhhjb jhbj hbjhbjh</t>
+  </si>
+  <si>
+    <t>Jun 18 2015 12:00AM</t>
+  </si>
+  <si>
+    <t>Jun 25 2015 10:05AM</t>
   </si>
 </sst>
 </file>
@@ -480,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,6 +652,88 @@
         <v>30</v>
       </c>
     </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
   <si>
     <t>ID_PERSONA</t>
   </si>
@@ -171,6 +171,198 @@
   </si>
   <si>
     <t>Jun 25 2015 10:05AM</t>
+  </si>
+  <si>
+    <t>313yy772662015</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Juan Lopez Sanchez</t>
+  </si>
+  <si>
+    <t>Feb  1 1987 12:00AM</t>
+  </si>
+  <si>
+    <t>Jun 26 2015 10:17AM</t>
+  </si>
+  <si>
+    <t>SALU870201HDFGRS00</t>
+  </si>
+  <si>
+    <t>SALU8702014W1</t>
+  </si>
+  <si>
+    <t>12345678909</t>
+  </si>
+  <si>
+    <t>253026620153</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>knkj</t>
+  </si>
+  <si>
+    <t>kjnkjn</t>
+  </si>
+  <si>
+    <t>knkj nkjn kjnkjn</t>
+  </si>
+  <si>
+    <t>Jun 30 2015 12:00AM</t>
+  </si>
+  <si>
+    <t>Jun 26 2015 10:46AM</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>RMMM30620157526620154</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Rios</t>
+  </si>
+  <si>
+    <t>Marquez</t>
+  </si>
+  <si>
+    <t>Marco Rios Marquez</t>
+  </si>
+  <si>
+    <t>Jun 26 2015 11:14AM</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>HSJM29620151929620155</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Hernadez</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>Juan Hernadez Serrano</t>
+  </si>
+  <si>
+    <t>Jun 29 2015 11:59AM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015 12:04PM</t>
+  </si>
+  <si>
+    <t>iiiM29620158229620151</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>ijnjn</t>
+  </si>
+  <si>
+    <t>iniuiniuniun</t>
+  </si>
+  <si>
+    <t>iuniuniun</t>
+  </si>
+  <si>
+    <t>ijnjn iniuiniuniun iuniuniun</t>
+  </si>
+  <si>
+    <t>Jun 29 2015 12:00AM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  1:07PM</t>
+  </si>
+  <si>
+    <t>huuM29620151129620151</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>uhbuhbu</t>
+  </si>
+  <si>
+    <t>hbubjhbub</t>
+  </si>
+  <si>
+    <t>ubhbuhbuhb</t>
+  </si>
+  <si>
+    <t>uhbuhbu hbubjhbub ubhbuhbuhb</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  1:53PM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  1:55PM</t>
+  </si>
+  <si>
+    <t>hbkM29620151529620151</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>kbhhjb</t>
+  </si>
+  <si>
+    <t>hbjh</t>
+  </si>
+  <si>
+    <t>bjhbjh</t>
+  </si>
+  <si>
+    <t>kbhhjb hbjh bjhbjh</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  4:06PM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  4:07PM</t>
   </si>
 </sst>
 </file>
@@ -540,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -734,6 +926,341 @@
         <v>27</v>
       </c>
     </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="122">
   <si>
     <t>ID_PERSONA</t>
   </si>
@@ -363,6 +363,27 @@
   </si>
   <si>
     <t>Jun 29 2015  4:07PM</t>
+  </si>
+  <si>
+    <t>PLMM28519807031720154</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Lun</t>
+  </si>
+  <si>
+    <t>Marco Perez Lun</t>
+  </si>
+  <si>
+    <t>May 28 1980 12:00AM</t>
+  </si>
+  <si>
+    <t>Jul 31 2015  4:25PM</t>
   </si>
 </sst>
 </file>
@@ -732,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1186,6 +1207,9 @@
       <c r="F10" t="s">
         <v>19</v>
       </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" t="s">
         <v>99</v>
       </c>
@@ -1233,6 +1257,9 @@
       <c r="F11" t="s">
         <v>19</v>
       </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" t="s">
         <v>108</v>
       </c>
@@ -1258,6 +1285,56 @@
         <v>114</v>
       </c>
       <c r="P11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P12" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>ID_PERSONA</t>
   </si>
@@ -119,12 +119,12 @@
     <t>4012462015</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>nkjn</t>
   </si>
   <si>
@@ -260,91 +260,88 @@
     <t>HSJM29620151929620155</t>
   </si>
   <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Hernadez</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>Juan Hernadez Serrano</t>
+  </si>
+  <si>
+    <t>Jun 29 2015 11:59AM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015 12:04PM</t>
+  </si>
+  <si>
     <t>1003</t>
   </si>
   <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>Hernadez</t>
-  </si>
-  <si>
-    <t>Serrano</t>
-  </si>
-  <si>
-    <t>Juan Hernadez Serrano</t>
-  </si>
-  <si>
-    <t>Jun 29 2015 11:59AM</t>
-  </si>
-  <si>
-    <t>Jun 29 2015 12:04PM</t>
-  </si>
-  <si>
     <t>iiiM29620158229620151</t>
   </si>
   <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>ijnjn</t>
+  </si>
+  <si>
+    <t>iniuiniuniun</t>
+  </si>
+  <si>
+    <t>iuniuniun</t>
+  </si>
+  <si>
+    <t>ijnjn iniuiniuniun iuniuniun</t>
+  </si>
+  <si>
+    <t>Jun 29 2015 12:00AM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  1:07PM</t>
+  </si>
+  <si>
+    <t>huuM29620151129620151</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>uhbuhbu</t>
+  </si>
+  <si>
+    <t>hbubjhbub</t>
+  </si>
+  <si>
+    <t>ubhbuhbuhb</t>
+  </si>
+  <si>
+    <t>uhbuhbu hbubjhbub ubhbuhbuhb</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  1:53PM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  1:55PM</t>
+  </si>
+  <si>
+    <t>hbkM29620151529620151</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
     <t>1006</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>ijnjn</t>
-  </si>
-  <si>
-    <t>iniuiniuniun</t>
-  </si>
-  <si>
-    <t>iuniuniun</t>
-  </si>
-  <si>
-    <t>ijnjn iniuiniuniun iuniuniun</t>
-  </si>
-  <si>
-    <t>Jun 29 2015 12:00AM</t>
-  </si>
-  <si>
-    <t>Jun 29 2015  1:07PM</t>
-  </si>
-  <si>
-    <t>huuM29620151129620151</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>uhbuhbu</t>
-  </si>
-  <si>
-    <t>hbubjhbub</t>
-  </si>
-  <si>
-    <t>ubhbuhbuhb</t>
-  </si>
-  <si>
-    <t>uhbuhbu hbubjhbub ubhbuhbuhb</t>
-  </si>
-  <si>
-    <t>Jun 29 2015  1:53PM</t>
-  </si>
-  <si>
-    <t>Jun 29 2015  1:55PM</t>
-  </si>
-  <si>
-    <t>hbkM29620151529620151</t>
-  </si>
-  <si>
-    <t>1010</t>
   </si>
   <si>
     <t>kbhhjb</t>
@@ -825,6 +822,9 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
@@ -873,16 +873,16 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
       </c>
       <c r="J3" t="s">
         <v>35</v>
@@ -914,7 +914,7 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
@@ -923,7 +923,7 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
@@ -949,13 +949,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1002,13 +1002,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1055,7 +1055,7 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>71</v>
@@ -1064,7 +1064,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
@@ -1102,40 +1102,40 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
         <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
       </c>
       <c r="J8" t="s">
         <v>53</v>
       </c>
       <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
         <v>83</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>84</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>85</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>86</v>
-      </c>
-      <c r="O8" t="s">
-        <v>87</v>
       </c>
       <c r="P8" t="s">
         <v>27</v>
@@ -1143,46 +1143,46 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
         <v>90</v>
       </c>
-      <c r="I9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>91</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>92</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>93</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>94</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>95</v>
-      </c>
-      <c r="O9" t="s">
-        <v>96</v>
       </c>
       <c r="P9" t="s">
         <v>27</v>
@@ -1190,19 +1190,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
         <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" t="s">
-        <v>98</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1211,28 +1211,28 @@
         <v>42</v>
       </c>
       <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
         <v>99</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>100</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>101</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>102</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>103</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>104</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" t="s">
-        <v>106</v>
       </c>
       <c r="P10" t="s">
         <v>27</v>
@@ -1240,19 +1240,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -1261,28 +1261,28 @@
         <v>31</v>
       </c>
       <c r="H11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
         <v>108</v>
       </c>
-      <c r="I11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>109</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>110</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>111</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>112</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>113</v>
-      </c>
-      <c r="O11" t="s">
-        <v>114</v>
       </c>
       <c r="P11" t="s">
         <v>27</v>
@@ -1290,49 +1290,49 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
         <v>73</v>
       </c>
       <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
         <v>117</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>118</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>119</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>120</v>
-      </c>
-      <c r="O12" t="s">
-        <v>121</v>
       </c>
       <c r="P12" t="s">
         <v>27</v>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="121">
   <si>
     <t>ID_PERSONA</t>
   </si>
@@ -752,7 +752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -881,9 +883,6 @@
       <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
         <v>35</v>
       </c>
@@ -922,9 +921,6 @@
       <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
@@ -966,9 +962,6 @@
       <c r="H5" t="s">
         <v>52</v>
       </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
       <c r="J5" t="s">
         <v>53</v>
       </c>
@@ -1022,9 +1015,6 @@
       <c r="H6" t="s">
         <v>63</v>
       </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
       <c r="J6" t="s">
         <v>64</v>
       </c>
@@ -1069,9 +1059,6 @@
       <c r="H7" t="s">
         <v>72</v>
       </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
       <c r="J7" t="s">
         <v>73</v>
       </c>
@@ -1116,9 +1103,6 @@
       <c r="H8" t="s">
         <v>80</v>
       </c>
-      <c r="I8" t="s">
-        <v>81</v>
-      </c>
       <c r="J8" t="s">
         <v>53</v>
       </c>
@@ -1163,9 +1147,6 @@
       <c r="H9" t="s">
         <v>89</v>
       </c>
-      <c r="I9" t="s">
-        <v>80</v>
-      </c>
       <c r="J9" t="s">
         <v>90</v>
       </c>
@@ -1213,9 +1194,6 @@
       <c r="H10" t="s">
         <v>97</v>
       </c>
-      <c r="I10" t="s">
-        <v>98</v>
-      </c>
       <c r="J10" t="s">
         <v>99</v>
       </c>
@@ -1263,9 +1241,6 @@
       <c r="H11" t="s">
         <v>106</v>
       </c>
-      <c r="I11" t="s">
-        <v>107</v>
-      </c>
       <c r="J11" t="s">
         <v>108</v>
       </c>
@@ -1312,9 +1287,6 @@
       </c>
       <c r="H12" t="s">
         <v>115</v>
-      </c>
-      <c r="I12" t="s">
-        <v>89</v>
       </c>
       <c r="J12" t="s">
         <v>73</v>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/PER_PERSONAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="137">
   <si>
     <t>ID_PERSONA</t>
   </si>
@@ -122,57 +122,57 @@
     <t>5</t>
   </si>
   <si>
+    <t>nkjn</t>
+  </si>
+  <si>
+    <t>kjn</t>
+  </si>
+  <si>
+    <t>kjnk</t>
+  </si>
+  <si>
+    <t>nkjn kjn kjnk</t>
+  </si>
+  <si>
+    <t>Jun 13 2015 12:00AM</t>
+  </si>
+  <si>
+    <t>Jun 24 2015  6:38PM</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3932562015</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>jhhjb</t>
+  </si>
+  <si>
+    <t>jhbj</t>
+  </si>
+  <si>
+    <t>hbjhbjh</t>
+  </si>
+  <si>
+    <t>jhhjb jhbj hbjhbjh</t>
+  </si>
+  <si>
+    <t>Jun 18 2015 12:00AM</t>
+  </si>
+  <si>
+    <t>Jun 25 2015 10:05AM</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>nkjn</t>
-  </si>
-  <si>
-    <t>kjn</t>
-  </si>
-  <si>
-    <t>kjnk</t>
-  </si>
-  <si>
-    <t>nkjn kjn kjnk</t>
-  </si>
-  <si>
-    <t>Jun 13 2015 12:00AM</t>
-  </si>
-  <si>
-    <t>Jun 24 2015  6:38PM</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3932562015</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>jhhjb</t>
-  </si>
-  <si>
-    <t>jhbj</t>
-  </si>
-  <si>
-    <t>hbjhbjh</t>
-  </si>
-  <si>
-    <t>jhhjb jhbj hbjhbjh</t>
-  </si>
-  <si>
-    <t>Jun 18 2015 12:00AM</t>
-  </si>
-  <si>
-    <t>Jun 25 2015 10:05AM</t>
-  </si>
-  <si>
     <t>313yy772662015</t>
   </si>
   <si>
@@ -263,105 +263,105 @@
     <t>1004</t>
   </si>
   <si>
+    <t>Hernadez</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>Juan Hernadez Serrano</t>
+  </si>
+  <si>
+    <t>Jun 29 2015 11:59AM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015 12:04PM</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>iiiM29620158229620151</t>
+  </si>
+  <si>
+    <t>1007</t>
+  </si>
+  <si>
+    <t>ijnjn</t>
+  </si>
+  <si>
+    <t>iniuiniuniun</t>
+  </si>
+  <si>
+    <t>iuniuniun</t>
+  </si>
+  <si>
+    <t>ijnjn iniuiniuniun iuniuniun</t>
+  </si>
+  <si>
+    <t>Jun 29 2015 12:00AM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  1:07PM</t>
+  </si>
+  <si>
+    <t>huuM29620151129620151</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
-    <t>Hernadez</t>
-  </si>
-  <si>
-    <t>Serrano</t>
-  </si>
-  <si>
-    <t>Juan Hernadez Serrano</t>
-  </si>
-  <si>
-    <t>Jun 29 2015 11:59AM</t>
-  </si>
-  <si>
-    <t>Jun 29 2015 12:04PM</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>iiiM29620158229620151</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>ijnjn</t>
-  </si>
-  <si>
-    <t>iniuiniuniun</t>
-  </si>
-  <si>
-    <t>iuniuniun</t>
-  </si>
-  <si>
-    <t>ijnjn iniuiniuniun iuniuniun</t>
-  </si>
-  <si>
-    <t>Jun 29 2015 12:00AM</t>
-  </si>
-  <si>
-    <t>Jun 29 2015  1:07PM</t>
-  </si>
-  <si>
-    <t>huuM29620151129620151</t>
-  </si>
-  <si>
     <t>1009</t>
   </si>
   <si>
+    <t>uhbuhbu</t>
+  </si>
+  <si>
+    <t>hbubjhbub</t>
+  </si>
+  <si>
+    <t>ubhbuhbuhb</t>
+  </si>
+  <si>
+    <t>uhbuhbu hbubjhbub ubhbuhbuhb</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  1:53PM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  1:55PM</t>
+  </si>
+  <si>
     <t>1005</t>
   </si>
   <si>
-    <t>uhbuhbu</t>
-  </si>
-  <si>
-    <t>hbubjhbub</t>
-  </si>
-  <si>
-    <t>ubhbuhbuhb</t>
-  </si>
-  <si>
-    <t>uhbuhbu hbubjhbub ubhbuhbuhb</t>
-  </si>
-  <si>
-    <t>Jun 29 2015  1:53PM</t>
-  </si>
-  <si>
-    <t>Jun 29 2015  1:55PM</t>
-  </si>
-  <si>
     <t>hbkM29620151529620151</t>
   </si>
   <si>
     <t>1010</t>
   </si>
   <si>
+    <t>kbhhjb</t>
+  </si>
+  <si>
+    <t>hbjh</t>
+  </si>
+  <si>
+    <t>bjhbjh</t>
+  </si>
+  <si>
+    <t>kbhhjb hbjh bjhbjh</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  4:06PM</t>
+  </si>
+  <si>
+    <t>Jun 29 2015  4:07PM</t>
+  </si>
+  <si>
     <t>1006</t>
   </si>
   <si>
-    <t>kbhhjb</t>
-  </si>
-  <si>
-    <t>hbjh</t>
-  </si>
-  <si>
-    <t>bjhbjh</t>
-  </si>
-  <si>
-    <t>kbhhjb hbjh bjhbjh</t>
-  </si>
-  <si>
-    <t>Jun 29 2015  4:06PM</t>
-  </si>
-  <si>
-    <t>Jun 29 2015  4:07PM</t>
-  </si>
-  <si>
     <t>PLMM28519807031720154</t>
   </si>
   <si>
@@ -381,6 +381,54 @@
   </si>
   <si>
     <t>Jul 31 2015  4:25PM</t>
+  </si>
+  <si>
+    <t>CLEM2551987202920151</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>Sep  2 2015  1:36PM</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>CLEM2551987152920151</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>May 25 1987  1:37PM</t>
+  </si>
+  <si>
+    <t>Sep  2 2015  1:39PM</t>
+  </si>
+  <si>
+    <t>HBBM292015372920151</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>bkj</t>
+  </si>
+  <si>
+    <t>hbjhbjhb</t>
+  </si>
+  <si>
+    <t>bjhb</t>
+  </si>
+  <si>
+    <t>bkj hbjhbjhb bjhb</t>
+  </si>
+  <si>
+    <t>Sep  2 2015  4:35PM</t>
+  </si>
+  <si>
+    <t>Sep  2 2015  4:36PM</t>
   </si>
 </sst>
 </file>
@@ -750,11 +798,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -884,60 +930,60 @@
         <v>33</v>
       </c>
       <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>40</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>46</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>48</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>49</v>
-      </c>
-      <c r="O4" t="s">
-        <v>50</v>
       </c>
       <c r="P4" t="s">
         <v>27</v>
@@ -945,13 +991,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1010,7 +1056,7 @@
         <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>63</v>
@@ -1019,7 +1065,7 @@
         <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L6" t="s">
         <v>65</v>
@@ -1039,13 +1085,13 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>71</v>
@@ -1054,7 +1100,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
@@ -1107,19 +1153,19 @@
         <v>53</v>
       </c>
       <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>82</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>83</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>84</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>85</v>
-      </c>
-      <c r="O8" t="s">
-        <v>86</v>
       </c>
       <c r="P8" t="s">
         <v>27</v>
@@ -1127,10 +1173,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
         <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>63</v>
@@ -1139,31 +1185,31 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
         <v>89</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>90</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>91</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>92</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>94</v>
-      </c>
-      <c r="O9" t="s">
-        <v>95</v>
       </c>
       <c r="P9" t="s">
         <v>27</v>
@@ -1174,10 +1220,10 @@
         <v>80</v>
       </c>
       <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
         <v>96</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1189,28 +1235,28 @@
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
         <v>97</v>
       </c>
       <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
         <v>99</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>100</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>101</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>102</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>103</v>
-      </c>
-      <c r="O10" t="s">
-        <v>104</v>
       </c>
       <c r="P10" t="s">
         <v>27</v>
@@ -1218,7 +1264,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>105</v>
@@ -1242,22 +1288,22 @@
         <v>106</v>
       </c>
       <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
         <v>108</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>109</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>110</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>111</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>112</v>
-      </c>
-      <c r="O11" t="s">
-        <v>113</v>
       </c>
       <c r="P11" t="s">
         <v>27</v>
@@ -1265,13 +1311,13 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1280,10 +1326,10 @@
         <v>115</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
         <v>115</v>
@@ -1307,6 +1353,153 @@
         <v>120</v>
       </c>
       <c r="P12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="s">
+        <v>134</v>
+      </c>
+      <c r="N15" t="s">
+        <v>135</v>
+      </c>
+      <c r="O15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" t="s">
         <v>27</v>
       </c>
     </row>
